--- a/medicine/Enfance/Éric_Sanvoisin/Éric_Sanvoisin.xlsx
+++ b/medicine/Enfance/Éric_Sanvoisin/Éric_Sanvoisin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Sanvoisin</t>
+          <t>Éric_Sanvoisin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Sanvoisin est un auteur français de littérature de jeunesse, né le 16 juin 1961 à Valence (Drôme).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Sanvoisin</t>
+          <t>Éric_Sanvoisin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Valence  le 16 juin 1961,Éric Sanvoisin commence à écrire à l'âge de 10 ans. C'est le fils de Anne-Marie Crumière et René Sanvoisin. Il est actuellement bibliothécaire-adjoint à la ville de Saint-Brieuc ainsi qu'auteur jeunesse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Sanvoisin</t>
+          <t>Éric_Sanvoisin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parus chez Nathan, collection Demi-lune
 Le nain et la petite crevette (1997) illustré par Frédéric Rébéna
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Sanvoisin</t>
+          <t>Éric_Sanvoisin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,10 +617,12 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2019 :  Prix Libbylit[1] délivré par l' IBBY, catégorie Album, pour Marions-les !, avec Delphine Jacquot
-2020 : Prix Ficelle[2] pour Marions-les !, avec Delphine Jacquot</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2019 :  Prix Libbylit délivré par l' IBBY, catégorie Album, pour Marions-les !, avec Delphine Jacquot
+2020 : Prix Ficelle pour Marions-les !, avec Delphine Jacquot</t>
         </is>
       </c>
     </row>
